--- a/biology/Botanique/Helianthemum_canariense/Helianthemum_canariense.xlsx
+++ b/biology/Botanique/Helianthemum_canariense/Helianthemum_canariense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hélianthème des Canaries
 L'hélianthème des Canaries, Helianthemum canariense est une espèce de plantes vivaces de la famille des Cistaceae originaire des Îles Canaries et présente aussi au Maroc.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cistus canariensis Jacq.
 Helianthemum mucronatum Dunal (1824)</t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste pérenne, bas (25 centimètres de haut), très ramifié.
-Les fleurs de  2 centimètres de diamètre sont jaune vif[1].
+Les fleurs de  2 centimètres de diamètre sont jaune vif.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Helianthemum canariense est originaire des Îles Canaries et du Maroc. Il pousse dans les zones rocheuses[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Helianthemum canariense est originaire des Îles Canaries et du Maroc. Il pousse dans les zones rocheuses.
 </t>
         </is>
       </c>
